--- a/fichier_total.xlsx
+++ b/fichier_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="79" customWidth="1" min="1" max="1"/>
+    <col width="91" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
   </cols>
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BUT 1e année Techniques de commercialisation FA - Apprenti</t>
+          <t>BUT 1e année Techniques de commercialisation FA - SAE responsable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -475,670 +475,1047 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BUT 1e année Techniques de commercialisation FA - SAE responsable</t>
+          <t>BUT 1e année Techniques de commercialisation FA - Apprenti</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BUT 1e année Techniques de commercialisation FI - Stage</t>
+          <t>BUT 1e année Techniques de commercialisation FA - SAE responsable tronc comun</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5993340</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BUT 1e année Techniques de commercialisation FI - SAE suivi</t>
+          <t>BUT 1e année Techniques de commercialisation FA - SAE suivi tronc commun</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BUT 1e année Techniques de commercialisation FI - SAE responsable</t>
+          <t>BUT 1e année Techniques de commercialisation FI - Stage</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BUT 2e année TC parcours Business développement FA - Apprenti</t>
+          <t>BUT 1e année Techniques de commercialisation FI - SAE responsable</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>945</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BUT 2e année TC parcours Business développement FA - SAE suivi</t>
+          <t>BUT 1e année Techniques de commercialisation FI - SAE suivi</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2297880</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BUT 2e année TC parcours Business développement FA - SAE responsable</t>
+          <t>BUT 1e année Techniques de commercialisation FI - Apprenti</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BUT 2e année TC parcours Marketing digital, e-business FA - Apprenti</t>
+          <t>BUT 1e année Techniques de commercialisation FI - SAE responsable tronc comun</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>999750</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BUT 2e année TC parcours Marketing digital, e-business FA - SAE suivi</t>
+          <t>BUT 1e année Techniques de commercialisation FI - SAE suivi tronc commun</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>825</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BUT 2e année TC parcours Marketing digital, e-business FA - SAE responsable</t>
+          <t>BUT 2e année TC parcours Business développement FA - SAE responsable</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BUT 2e année FI - TC parcours Business développement - Stage</t>
+          <t>BUT 2e année TC parcours Business développement FA - SAE suivi</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BUT 2e année FI - TC parcours Business développement - SAE suivi</t>
+          <t>BUT 2e année TC parcours Business développement FA - Apprenti</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BUT 2e année FI - TC parcours Business développement - SAE responsable</t>
+          <t>BUT 2e année TC parcours Business développement FA - SAE responsable tronc comun</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BUT 2e année - FI - TC parcours Business international - Stage</t>
+          <t>BUT 2e année TC parcours Business développement FA - SAE suivi tronc commun</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BUT 2e année - FI - TC parcours Business international - SAE suivi</t>
+          <t>BUT 2e année TC parcours Marketing digital, e-business FA - Stage</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BUT 2e année - FI - TC parcours Business international - SAE responsable</t>
+          <t>BUT 2e année TC parcours Marketing digital, e-business FA - SAE responsable</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BUT 2e année FI - TC parcours Marketing digital, e-business - Stage</t>
+          <t>BUT 2e année TC parcours Marketing digital, e-business FA - SAE suivi</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BUT 2e année FI - TC parcours Marketing digital, e-business - SAE suivi</t>
+          <t>BUT 2e année TC parcours Marketing digital, e-business FA - Apprenti</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BUT 2e année FI - TC parcours Marketing digital, e-business - SAE responsable</t>
+          <t>BUT 2e année TC parcours Marketing digital, e-business FA - SAE responsable tronc comun</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BUT 1e année Techniques de commercialisation IBM - Apprenti</t>
+          <t>BUT 2e année TC parcours Marketing digital, e-business FA - SAE suivi tronc commun</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2970</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BUT 1e année Techniques de commercialisation IBM - Stage</t>
+          <t>BUT 2e année FI - TC parcours Business développement - SAE responsable</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BUT 1e année Techniques de commercialisation IBM - SAE suivi</t>
+          <t>BUT 2e année FI - TC parcours Business développement - SAE suivi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BUT 1e année Techniques de commercialisation IBM - SAE responsable</t>
+          <t>BUT 2e année FI - TC parcours Business développement - Apprenti</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4693125</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BUT 2e année Techniques de commercialisation IBM - Apprenti</t>
+          <t>BUT 2e année FI - TC parcours Business développement - SAE responsable tronc comun</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3510</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BUT 2e année Techniques de commercialisation IBM - Stage</t>
+          <t>BUT 2e année FI - TC parcours Business développement - SAE suivi tronc commun</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BUT 2e année Techniques de commercialisation IBM - SAE suivi</t>
+          <t>BUT 2e année - FI - TC parcours Business international - SAE responsable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BUT 2e année Techniques de commercialisation IBM - SAE responsable</t>
+          <t>BUT 2e année - FI - TC parcours Business international - SAE suivi</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4350</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BUT 2e année Techniques de commercialisation - Tec2tour - Apprenti</t>
+          <t>BUT 2e année - FI - TC parcours Business international - Apprenti</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BUT 2e année Techniques de commercialisation - Tec2tour - Stage</t>
+          <t>BUT 2e année - FI - TC parcours Business international - SAE responsable tronc comun</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BUT 2e année Techniques de commercialisation - Tec2tour - SAE suivi</t>
+          <t>BUT 2e année - FI - TC parcours Business international - SAE suivi tronc commun</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BUT 2e année Techniques de commercialisation - Tec2tour - SAE responsable</t>
+          <t>BUT 2e année FI - TC parcours Marketing digital, e-business - Stage</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4950</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BUT 3e année FA - TC parcours Business développement - Apprenti</t>
+          <t>BUT 2e année FI - TC parcours Marketing digital, e-business - SAE responsable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31207410</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BUT 3e année FA - TC parcours Business développement - SAE suivi</t>
+          <t>BUT 2e année FI - TC parcours Marketing digital, e-business - Apprenti</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2625</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BUT 3e année FA - TC parcours Business développement - SAE responsable</t>
+          <t>BUT 2e année FI - TC parcours Marketing digital, e-business - SAE responsable tronc comun</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>540</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BUT 3e année FA - TC parcours Marketing digital, e-business - Apprenti</t>
+          <t>BUT 2e année FI - TC parcours Marketing digital, e-business - SAE suivi tronc commun</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4995</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BUT 3e année FA - TC parcours Marketing digital, e-business - SAE suivi</t>
+          <t>BUT 1e année Techniques de commercialisation IBM - SAE responsable</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>570</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BUT 3e année FA - TC parcours Marketing digital, e-business - SAE responsable</t>
+          <t>BUT 1e année Techniques de commercialisation IBM - SAE suivi</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5850</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BUT 3e année FI - TC parcours Marketing digital, e-business - Stage</t>
+          <t>BUT 1e année Techniques de commercialisation IBM - Apprenti</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BUT 3e année FI - TC parcours Marketing digital, e-business - SAE suivi</t>
+          <t>BUT 1e année Techniques de commercialisation IBM - SAE responsable tronc comun</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3075</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BUT 3e année FI - TC parcours Marketing digital, e-business - SAE responsable</t>
+          <t>BUT 2e année Techniques de commercialisation IBM - SAE responsable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BUT 3e année FI - TC parcours Business développement - Stage</t>
+          <t>BUT 2e année Techniques de commercialisation IBM - SAE suivi</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>58695</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BUT 3e année FI - TC parcours Business développement - SAE suivi</t>
+          <t>BUT 2e année Techniques de commercialisation IBM - Apprenti</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BUT 3e année FI - TC parcours Business développement - SAE responsable</t>
+          <t>BUT 2e année Techniques de commercialisation IBM - SAE responsable tronc comun</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BUT 3e année - FI - TC parcours Business international - Stage</t>
+          <t>BUT 2e année Techniques de commercialisation IBM - SAE suivi tronc commun</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>690</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BUT 3e année - FI - TC parcours Business international - SAE suivi</t>
+          <t>BUT 2e année Techniques de commercialisation - Tec2tour - SAE responsable</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3525</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BUT 3e année - FI - TC parcours Business international - SAE responsable</t>
+          <t>BUT 2e année Techniques de commercialisation - Tec2tour - SAE suivi</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Licence professionnelle Technico-commercial FA - Apprenti</t>
+          <t>BUT 2e année Techniques de commercialisation - Tec2tour - Apprenti</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6615</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Licence professionnelle Technico-commercial FA - SAE suivi</t>
+          <t>BUT 2e année Techniques de commercialisation - Tec2tour - SAE suivi tronc commun</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Licence professionnelle Technico-commercial FA - SAE responsable</t>
+          <t>BUT 3e année FA - TC parcours Business développement - SAE responsable</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>146115</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Loi ORE : mettre 1 si l'enseignant a étudié des dossiers, 0 sinon</t>
+          <t>BUT 3e année FA - TC parcours Business développement - SAE suivi</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>780</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>BUT 3e année FA - TC parcours Business développement - Apprenti</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BUT 3e année FA - TC parcours Business développement - SAE responsable tronc comun</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BUT 3e année FA - TC parcours Business développement - SAE suivi tronc commun</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BUT 3e année FA - TC parcours Marketing digital, e-business - SAE responsable</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BUT 3e année FA - TC parcours Marketing digital, e-business - SAE suivi</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BUT 3e année FA - TC parcours Marketing digital, e-business - Apprenti</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BUT 3e année FA - TC parcours Marketing digital, e-business - SAE responsable tronc comun</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BUT 3e année FA - TC parcours Marketing digital, e-business - SAE suivi tronc commun</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BUT 3e année FI - TC parcours Marketing digital, e-business - SAE responsable</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BUT 3e année FI - TC parcours Marketing digital, e-business - SAE suivi</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BUT 3e année FI - TC parcours Marketing digital, e-business - Apprenti</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BUT 3e année FI - TC parcours Marketing digital, e-business - SAE responsable tronc comun</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>BUT 3e année FI - TC parcours Marketing digital, e-business - SAE suivi tronc commun</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BUT 3e année FI - TC parcours Business développement - SAE responsable</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BUT 3e année FI - TC parcours Business développement - SAE suivi</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BUT 3e année FI - TC parcours Business développement - Apprenti</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BUT 3e année FI - TC parcours Business développement - SAE responsable tronc comun</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BUT 3e année FI - TC parcours Business développement - SAE suivi tronc commun</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BUT 3e année - FI - TC parcours Business international - SAE responsable</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BUT 3e année - FI - TC parcours Business international - SAE suivi</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BUT 3e année - FI - TC parcours Business international - Apprenti</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BUT 3e année - FI - TC parcours Business international - SAE responsable tronc comun</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>BUT 3e année - FI - TC parcours Business international - SAE suivi tronc commun</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Licence professionnelle Technico-commercial FA - SAE responsable</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Licence professionnelle Technico-commercial FA - SAE suivi</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Licence professionnelle Technico-commercial FA - Apprenti</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Licence professionnelle Technico-commercial FA - SAE responsable tronc comun</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Licence professionnelle Technico-commercial FA - SAE suivi tronc commun</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Loi ORE : mettre 1 si l'enseignant a étudié des dossiers, 0 sinon</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>45500775</v>
+      <c r="B83" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
